--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\go\src\go-xlsx-protobuf\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="15945" windowHeight="9750" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="9750" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="2" r:id="rId1"/>
     <sheet name="user" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="comment" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -121,19 +126,37 @@
   </si>
   <si>
     <t>a.png</t>
+  </si>
+  <si>
+    <t>#注释项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,344 +166,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -488,314 +196,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1082,24 +507,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1133,7 +558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1184,7 +609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1202,22 +627,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
@@ -1228,7 +652,7 @@
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1268,7 +692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1322,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1342,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1362,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1383,25 +807,193 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -16,7 +16,7 @@
     <sheet name="user" sheetId="1" r:id="rId2"/>
     <sheet name="comment" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -148,7 +148,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>s</t>
+    <t>c</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -818,7 +818,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -815,10 +815,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -971,23 +971,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>19</v>
       </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>2</v>
       </c>
     </row>

--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -817,11 +817,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="JI61" sqref="JI1:JI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="120" max="120" width="9" customWidth="1"/>
+    <col min="142" max="142" width="9" customWidth="1"/>
+    <col min="186" max="186" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">

--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\go\src\go-xlsx-protobuf\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="9750" activeTab="2"/>
+    <workbookView windowWidth="14595" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="2" r:id="rId1"/>
-    <sheet name="user" sheetId="1" r:id="rId2"/>
-    <sheet name="comment" sheetId="3" r:id="rId3"/>
+    <sheet name="class1" sheetId="4" r:id="rId2"/>
+    <sheet name="user" sheetId="1" r:id="rId3"/>
+    <sheet name="comment" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -129,34 +125,25 @@
   </si>
   <si>
     <t>#注释项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>注释id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,27 +155,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -196,9 +505,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -210,17 +761,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -507,24 +1102,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="5" max="5" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -558,7 +1153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -575,7 +1170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -592,7 +1187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -609,7 +1204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -627,21 +1222,141 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
@@ -652,7 +1367,7 @@
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +1387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -692,7 +1407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +1421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -726,7 +1441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -746,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2</v>
       </c>
@@ -766,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>3</v>
       </c>
@@ -786,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>4</v>
       </c>
@@ -807,28 +1522,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="JI61" sqref="JI1:JI1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="JI61" sqref="JI$1:JI$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="120" max="120" width="9" customWidth="1"/>
     <col min="142" max="142" width="9" customWidth="1"/>
     <col min="186" max="186" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -836,10 +1552,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -850,7 +1566,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -859,7 +1575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -879,7 +1595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -887,13 +1603,13 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -913,7 +1629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7">
       <c r="B6">
         <v>1</v>
       </c>
@@ -933,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>2</v>
       </c>
@@ -953,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -976,7 +1692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7">
       <c r="B10">
         <v>4</v>
       </c>
@@ -997,8 +1713,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -139,11 +139,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,14 +153,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,15 +218,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,60 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -258,44 +289,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -312,25 +305,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,157 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,6 +496,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,56 +528,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,11 +556,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,145 +604,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -757,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1231,13 +1224,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1338,6 +1331,23 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
     </row>

--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14595" windowHeight="9975"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="2" r:id="rId1"/>
@@ -139,9 +139,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -153,7 +153,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,36 +250,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,17 +272,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,61 +290,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,49 +305,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,133 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,24 +496,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -528,6 +510,63 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,30 +588,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -581,21 +596,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,133 +616,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:E6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:F8"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>

--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="14235" windowHeight="5985"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -37,43 +37,49 @@
     <t>uint32</t>
   </si>
   <si>
+    <t>string?</t>
+  </si>
+  <si>
+    <t>uint32[|]?</t>
+  </si>
+  <si>
+    <t>EDataType</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>A班</t>
+  </si>
+  <si>
+    <t>1|2</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>B班</t>
+  </si>
+  <si>
+    <t>CSHARP</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>uint32[]</t>
-  </si>
-  <si>
-    <t>EDataType</t>
-  </si>
-  <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>A班</t>
-  </si>
-  <si>
-    <t>1|2</t>
-  </si>
-  <si>
-    <t>XML</t>
-  </si>
-  <si>
-    <t>B班</t>
-  </si>
-  <si>
-    <t>CSHARP</t>
   </si>
   <si>
     <t>年龄</t>
@@ -138,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -153,7 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,23 +180,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,18 +217,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,6 +266,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -267,14 +282,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,9 +295,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,13 +311,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,19 +365,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,145 +485,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +502,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,15 +525,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +562,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -585,17 +602,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,145 +610,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,11 +1110,12 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1254,13 +1261,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1385,16 +1392,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1402,16 +1409,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -1425,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1439,16 +1446,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1456,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -1465,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1476,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -1485,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1496,7 +1503,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -1505,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1516,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -1525,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1556,13 +1563,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -1573,16 +1580,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -1590,16 +1597,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -1613,7 +1620,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1627,16 +1634,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1644,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -1653,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1664,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -1673,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1681,13 +1688,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>18</v>
@@ -1696,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1707,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -1716,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>2</v>

--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -31,6 +31,9 @@
     <t>人员</t>
   </si>
   <si>
+    <t>动态类型</t>
+  </si>
+  <si>
     <t>数据类型</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>uint32[|]?</t>
   </si>
   <si>
+    <t>void</t>
+  </si>
+  <si>
     <t>EDataType</t>
   </si>
   <si>
@@ -56,6 +62,9 @@
   </si>
   <si>
     <t>Users</t>
+  </si>
+  <si>
+    <t>Size</t>
   </si>
   <si>
     <t>Type</t>
@@ -144,9 +153,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -159,7 +168,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,22 +203,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,17 +227,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,45 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,7 +291,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,21 +310,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -311,13 +320,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,169 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,11 +514,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,21 +588,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -602,6 +602,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -610,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,19 +1116,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,81 +1144,93 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1217,8 +1238,8 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
+      <c r="F6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1253,41 +1274,41 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1295,16 +1316,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1312,16 +1333,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1329,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1338,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1346,7 +1367,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1355,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1392,50 +1413,50 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1443,19 +1464,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1463,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -1472,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1483,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -1492,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1503,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -1512,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1523,7 +1544,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -1532,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1563,13 +1584,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -1580,50 +1601,50 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1631,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1651,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -1660,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1671,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -1680,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1688,13 +1709,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>18</v>
@@ -1703,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1714,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -1723,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>2</v>

--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14235" windowHeight="5985"/>
+    <workbookView windowWidth="20175" windowHeight="5985"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>CSHARP</t>
+  </si>
+  <si>
+    <t>C班</t>
   </si>
   <si>
     <t>string</t>
@@ -1116,13 +1119,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
@@ -1239,6 +1242,21 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7"/>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1282,13 +1300,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1413,16 +1431,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1430,16 +1448,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -1453,7 +1471,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1467,16 +1485,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1484,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -1493,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1504,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -1513,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1524,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -1533,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1544,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -1553,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1584,13 +1602,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -1601,16 +1619,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -1618,16 +1636,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -1641,7 +1659,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -1655,16 +1673,16 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1672,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -1681,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1692,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -1701,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1709,13 +1727,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>18</v>
@@ -1724,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1735,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -1744,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>2</v>

--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20175" windowHeight="5985"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -109,6 +109,39 @@
     <t>bool</t>
   </si>
   <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>uint64</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>bool[]</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>int64[]</t>
+  </si>
+  <si>
+    <t>uint64[]</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>double[]</t>
+  </si>
+  <si>
+    <t>EDataType[]</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
@@ -122,6 +155,42 @@
   </si>
   <si>
     <t>PClass</t>
+  </si>
+  <si>
+    <t>VarInt64</t>
+  </si>
+  <si>
+    <t>VarUint64</t>
+  </si>
+  <si>
+    <t>VarFloat</t>
+  </si>
+  <si>
+    <t>VarDouble</t>
+  </si>
+  <si>
+    <t>Sexs</t>
+  </si>
+  <si>
+    <t>Heads</t>
+  </si>
+  <si>
+    <t>PClasses</t>
+  </si>
+  <si>
+    <t>VarInt64s</t>
+  </si>
+  <si>
+    <t>VarUint64s</t>
+  </si>
+  <si>
+    <t>VarFloats</t>
+  </si>
+  <si>
+    <t>VarDoubles</t>
+  </si>
+  <si>
+    <t>Types</t>
   </si>
   <si>
     <t>张三</t>
@@ -156,9 +225,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -171,14 +240,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,9 +269,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,7 +291,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,24 +313,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,24 +344,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -286,29 +377,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,31 +392,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +536,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,133 +560,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,17 +586,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +621,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -558,35 +641,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,8 +663,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,10 +691,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,133 +703,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,8 +1190,8 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1255,7 +1324,6 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7"/>
       <c r="F7" t="s">
         <v>21</v>
       </c>
@@ -1273,7 +1341,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1406,13 +1474,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
@@ -1421,9 +1489,17 @@
     <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="11" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="22.625" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="18" width="10.375" customWidth="1"/>
+    <col min="19" max="19" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1442,8 +1518,23 @@
       <c r="F1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1462,8 +1553,47 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1471,13 +1601,52 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1485,24 +1654,63 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -1511,18 +1719,57 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1.1</v>
+      </c>
+      <c r="J5">
+        <v>2.1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>1.1</v>
+      </c>
+      <c r="Q5">
+        <v>2.1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -1531,18 +1778,57 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2.1</v>
+      </c>
+      <c r="J6">
+        <v>3.1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>2.1</v>
+      </c>
+      <c r="Q6">
+        <v>3.1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -1551,18 +1837,57 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3.1</v>
+      </c>
+      <c r="J7">
+        <v>4.1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>3.1</v>
+      </c>
+      <c r="Q7">
+        <v>4.1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -1571,10 +1896,43 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F8">
         <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>4.1</v>
+      </c>
+      <c r="J8">
+        <v>5.1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>4.1</v>
+      </c>
+      <c r="Q8">
+        <v>5.1</v>
       </c>
     </row>
   </sheetData>
@@ -1590,7 +1948,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="JI61" sqref="JI$1:JI$1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1602,13 +1960,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -1659,7 +2017,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -1673,16 +2031,16 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1690,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -1699,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1710,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -1719,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1727,13 +2085,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <v>18</v>
@@ -1742,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1753,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -1762,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G10">
         <v>2</v>

--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>string?UserHead&lt;1&gt;</t>
+  </si>
+  <si>
+    <t>uint32&lt;2&gt;</t>
   </si>
   <si>
     <t>int64</t>
@@ -225,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -236,20 +242,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,16 +259,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -284,22 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,21 +289,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -337,7 +298,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -352,8 +313,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -361,7 +345,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,7 +369,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,67 +398,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,12 +572,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -477,102 +579,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,26 +589,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -617,15 +603,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,6 +641,24 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -683,6 +678,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,133 +709,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1476,8 +1482,8 @@
   <sheetPr/>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1485,7 +1491,8 @@
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="5" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
@@ -1548,49 +1555,49 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R2" t="s">
         <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1601,7 +1608,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1622,7 +1629,7 @@
         <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
@@ -1654,55 +1661,55 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R4" t="s">
         <v>16</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1710,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -1719,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1740,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1769,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -1778,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1799,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1828,7 +1835,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -1837,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1858,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -1887,7 +1894,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -1896,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1917,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -1960,13 +1967,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -2017,7 +2024,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -2031,16 +2038,16 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2048,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -2057,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2068,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -2077,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2085,13 +2092,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>18</v>
@@ -2100,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2111,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -2120,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G10">
         <v>2</v>

--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>string?UserHead&lt;1&gt;</t>
-  </si>
-  <si>
-    <t>uint32&lt;2&gt;</t>
   </si>
   <si>
     <t>int64</t>
@@ -231,10 +228,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -246,7 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +251,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,23 +279,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,22 +303,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,7 +318,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -337,7 +326,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -345,7 +334,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,25 +356,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,6 +377,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -398,37 +395,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,145 +563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,6 +586,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,21 +624,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,27 +645,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,11 +671,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,145 +694,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1483,7 +1480,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1558,46 +1555,46 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
       </c>
       <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
         <v>38</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>40</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
       </c>
       <c r="R2" t="s">
         <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1608,7 +1605,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1629,7 +1626,7 @@
         <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
@@ -1661,55 +1658,55 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>47</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>48</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>49</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>50</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>52</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>53</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>54</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>55</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>56</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>57</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>58</v>
       </c>
       <c r="R4" t="s">
         <v>16</v>
       </c>
       <c r="S4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1717,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -1726,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1747,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1776,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -1785,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1806,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1835,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -1844,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1865,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -1894,7 +1891,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -1903,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1924,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -1967,13 +1964,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -2024,7 +2021,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -2038,16 +2035,16 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2055,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -2064,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2075,7 +2072,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -2084,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2092,13 +2089,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>18</v>
@@ -2107,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2118,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -2127,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10">
         <v>2</v>

--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -52,6 +52,9 @@
     <t>EDataType</t>
   </si>
   <si>
+    <t>bytes</t>
+  </si>
+  <si>
     <t>cs</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>A班</t>
   </si>
   <si>
@@ -77,6 +83,9 @@
   </si>
   <si>
     <t>XML</t>
+  </si>
+  <si>
+    <t>0xFEAC</t>
   </si>
   <si>
     <t>B班</t>
@@ -228,10 +237,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -242,6 +251,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -249,6 +281,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -256,16 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,14 +305,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,15 +336,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,36 +347,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,6 +366,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -378,13 +381,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -395,175 +404,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +595,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -607,23 +666,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,44 +689,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,10 +703,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,133 +715,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1191,13 +1200,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
@@ -1223,7 +1232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1242,62 +1251,74 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1305,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1314,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1322,13 +1343,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1371,13 +1392,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1385,19 +1406,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1405,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1422,16 +1443,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1439,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1448,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1456,7 +1477,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1465,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1479,8 +1500,8 @@
   <sheetPr/>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1511,25 +1532,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" t="s">
         <v>5</v>
@@ -1543,111 +1564,111 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
         <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1655,58 +1676,58 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1714,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -1723,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1744,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1762,10 +1783,10 @@
         <v>2.1</v>
       </c>
       <c r="R5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1773,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -1782,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1803,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1821,10 +1842,10 @@
         <v>3.1</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1832,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -1841,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1862,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -1880,10 +1901,10 @@
         <v>4.1</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1891,7 +1912,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -1900,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1921,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -1964,13 +1985,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -1981,16 +2002,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -1998,16 +2019,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -2015,16 +2036,16 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -2032,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2052,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -2061,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2072,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -2081,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2089,13 +2110,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>18</v>
@@ -2104,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2115,7 +2136,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -2124,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>2</v>

--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -52,163 +52,178 @@
     <t>EDataType</t>
   </si>
   <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>A班</t>
+  </si>
+  <si>
+    <t>1|2</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>B班</t>
+  </si>
+  <si>
+    <t>CSHARP</t>
+  </si>
+  <si>
+    <t>C班</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>uint32[]</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>班级</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>string?UserHead&lt;1&gt;</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>uint64</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>bool[]</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>int64[]</t>
+  </si>
+  <si>
+    <t>uint64[]</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>double[]</t>
+  </si>
+  <si>
+    <t>EDataType[]</t>
+  </si>
+  <si>
     <t>bytes</t>
   </si>
   <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Type</t>
+    <t>bytes[]</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>PClass</t>
+  </si>
+  <si>
+    <t>VarInt64</t>
+  </si>
+  <si>
+    <t>VarUint64</t>
+  </si>
+  <si>
+    <t>VarFloat</t>
+  </si>
+  <si>
+    <t>VarDouble</t>
+  </si>
+  <si>
+    <t>Sexs</t>
+  </si>
+  <si>
+    <t>Heads</t>
+  </si>
+  <si>
+    <t>PClasses</t>
+  </si>
+  <si>
+    <t>VarInt64s</t>
+  </si>
+  <si>
+    <t>VarUint64s</t>
+  </si>
+  <si>
+    <t>VarFloats</t>
+  </si>
+  <si>
+    <t>VarDoubles</t>
+  </si>
+  <si>
+    <t>Types</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>A班</t>
-  </si>
-  <si>
-    <t>1|2</t>
-  </si>
-  <si>
-    <t>XML</t>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>abc_def.png</t>
   </si>
   <si>
     <t>0xFEAC</t>
   </si>
   <si>
-    <t>B班</t>
-  </si>
-  <si>
-    <t>CSHARP</t>
-  </si>
-  <si>
-    <t>C班</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>uint32[]</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>头像</t>
-  </si>
-  <si>
-    <t>班级</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>string?UserHead&lt;1&gt;</t>
-  </si>
-  <si>
-    <t>int64</t>
-  </si>
-  <si>
-    <t>uint64</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>bool[]</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>int64[]</t>
-  </si>
-  <si>
-    <t>uint64[]</t>
-  </si>
-  <si>
-    <t>float[]</t>
-  </si>
-  <si>
-    <t>double[]</t>
-  </si>
-  <si>
-    <t>EDataType[]</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>PClass</t>
-  </si>
-  <si>
-    <t>VarInt64</t>
-  </si>
-  <si>
-    <t>VarUint64</t>
-  </si>
-  <si>
-    <t>VarFloat</t>
-  </si>
-  <si>
-    <t>VarDouble</t>
-  </si>
-  <si>
-    <t>Sexs</t>
-  </si>
-  <si>
-    <t>Heads</t>
-  </si>
-  <si>
-    <t>PClasses</t>
-  </si>
-  <si>
-    <t>VarInt64s</t>
-  </si>
-  <si>
-    <t>VarUint64s</t>
-  </si>
-  <si>
-    <t>VarFloats</t>
-  </si>
-  <si>
-    <t>VarDoubles</t>
-  </si>
-  <si>
-    <t>Types</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>abc_def.png</t>
+    <t>FE|C0</t>
   </si>
   <si>
     <t>李四</t>
@@ -237,10 +252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -251,17 +266,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,23 +309,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,14 +325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -326,24 +332,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -359,10 +365,33 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,21 +404,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,55 +419,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,84 +593,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -549,42 +600,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,32 +610,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -635,15 +624,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,6 +648,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,10 +718,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,133 +730,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,13 +1215,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
@@ -1232,7 +1247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1251,74 +1266,62 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1326,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1335,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1343,13 +1346,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1392,13 +1395,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1406,19 +1409,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1426,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1443,16 +1446,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1460,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1469,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1477,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1486,7 +1489,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1498,10 +1501,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1532,25 +1535,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R1" t="s">
         <v>5</v>
@@ -1559,183 +1562,219 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>40</v>
-      </c>
-      <c r="O2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>43</v>
       </c>
       <c r="R2" t="s">
         <v>10</v>
       </c>
       <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>11</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>52</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>56</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>57</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>58</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" t="s">
         <v>60</v>
       </c>
-      <c r="R4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="U4" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -1744,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1765,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1783,10 +1822,22 @@
         <v>2.1</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="T5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" t="s">
+        <v>67</v>
+      </c>
+      <c r="W5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1794,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -1803,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1824,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1842,10 +1893,10 @@
         <v>3.1</v>
       </c>
       <c r="R6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1853,7 +1904,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -1862,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1883,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -1901,10 +1952,10 @@
         <v>4.1</v>
       </c>
       <c r="R7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1912,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -1921,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1942,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -1985,13 +2036,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -2002,16 +2053,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -2019,16 +2070,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -2036,16 +2087,16 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -2053,19 +2104,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>47</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2073,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -2082,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2093,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -2102,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2110,13 +2161,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>18</v>
@@ -2125,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2136,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -2145,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G10">
         <v>2</v>

--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="2" r:id="rId1"/>
     <sheet name="class1" sheetId="4" r:id="rId2"/>
     <sheet name="user" sheetId="1" r:id="rId3"/>
     <sheet name="comment" sheetId="3" r:id="rId4"/>
+    <sheet name="test" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -252,10 +253,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -274,22 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +298,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,22 +360,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,6 +388,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -419,187 +420,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,17 +662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -710,6 +700,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -718,45 +719,48 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,97 +770,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1368,7 +1369,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A1" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1503,8 +1504,8 @@
   <sheetPr/>
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -2024,7 +2025,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2207,4 +2208,136 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/model.xlsx
+++ b/data/model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -47,7 +47,7 @@
     <t>uint32[|]?</t>
   </si>
   <si>
-    <t>void</t>
+    <t>void!</t>
   </si>
   <si>
     <t>EDataType</t>
@@ -95,6 +95,9 @@
     <t>uint32[]</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
     <t>年龄</t>
   </si>
   <si>
@@ -110,7 +113,7 @@
     <t>bool</t>
   </si>
   <si>
-    <t>string?UserHead&lt;1&gt;</t>
+    <t>string!UserHead&lt;1&gt;</t>
   </si>
   <si>
     <t>int64</t>
@@ -1218,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:H$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1369,7 +1372,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E7"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1453,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1505,7 +1508,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1536,25 +1539,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R1" t="s">
         <v>5</v>
@@ -1574,64 +1577,64 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" t="s">
         <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
         <v>23</v>
       </c>
       <c r="W2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1642,7 +1645,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1663,7 +1666,7 @@
         <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
@@ -1707,67 +1710,67 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R4" t="s">
         <v>16</v>
       </c>
       <c r="S4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1775,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -1784,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1805,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1829,16 +1832,16 @@
         <v>19</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U5" t="s">
+        <v>69</v>
+      </c>
+      <c r="V5" t="s">
         <v>68</v>
       </c>
-      <c r="V5" t="s">
-        <v>67</v>
-      </c>
       <c r="W5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1846,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -1855,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1876,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1905,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -1914,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1935,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -1964,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -1973,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1994,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -2037,13 +2040,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -2054,16 +2057,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -2077,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -2094,7 +2097,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -2108,16 +2111,16 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2125,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -2134,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2145,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -2154,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2162,13 +2165,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>18</v>
@@ -2177,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2188,7 +2191,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -2197,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2215,7 +2218,7 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
